--- a/database/industries/shishe/kehamda/product/yearly.xlsx
+++ b/database/industries/shishe/kehamda/product/yearly.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shishe\kehamda\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\shishe\kehamda\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65892A5-3F8C-498D-B312-773D269C7AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2655" yWindow="2655" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="31">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -118,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,17 +566,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -592,7 +593,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -609,7 +610,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -626,7 +627,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -641,7 +642,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -658,7 +659,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +676,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -690,7 +691,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -727,7 +728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -742,7 +743,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -781,7 +782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>18</v>
       </c>
@@ -818,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -857,7 +858,7 @@
         <v>83355</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
@@ -894,7 +895,7 @@
         <v>83355</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -909,7 +910,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -924,7 +925,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -939,7 +940,7 @@
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -976,7 +977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -991,7 +992,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
@@ -1030,159 +1031,135 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="11" t="s">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="9">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11">
         <v>85650</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>73621</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <v>67528</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <v>69694</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="11">
         <v>63470</v>
       </c>
-      <c r="J20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="9">
-        <v>0</v>
-      </c>
-      <c r="K21" s="9">
-        <v>0</v>
-      </c>
-      <c r="L21" s="9">
-        <v>0</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
-      </c>
-      <c r="N21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="11">
+      <c r="J21" s="11">
         <v>63285</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K21" s="11">
         <v>74393</v>
       </c>
-      <c r="L22" s="11">
+      <c r="L21" s="11">
         <v>74163</v>
       </c>
-      <c r="M22" s="11">
+      <c r="M21" s="11">
         <v>75226</v>
       </c>
-      <c r="N22" s="11">
+      <c r="N21" s="11">
         <v>72315</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
         <v>85650</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F22" s="15">
         <v>73621</v>
       </c>
-      <c r="G23" s="15">
+      <c r="G22" s="15">
         <v>67528</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H22" s="15">
         <v>69694</v>
       </c>
-      <c r="I23" s="15">
+      <c r="I22" s="15">
         <v>63470</v>
       </c>
-      <c r="J23" s="15">
+      <c r="J22" s="15">
         <v>63285</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K22" s="15">
         <v>74220</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L22" s="15">
         <v>73828</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M22" s="15">
         <v>75160</v>
       </c>
-      <c r="N23" s="15">
+      <c r="N22" s="15">
         <v>72315</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1197,7 +1174,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1212,76 +1189,100 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="M27" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N26" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0</v>
+      </c>
+      <c r="K28" s="9">
+        <v>-3475</v>
+      </c>
+      <c r="L28" s="9">
+        <v>-10612</v>
+      </c>
+      <c r="M28" s="9">
+        <v>-3319</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>25</v>
@@ -1306,21 +1307,21 @@
         <v>0</v>
       </c>
       <c r="K29" s="9">
-        <v>-3475</v>
+        <v>-9994</v>
       </c>
       <c r="L29" s="9">
-        <v>-10612</v>
+        <v>-1627</v>
       </c>
       <c r="M29" s="9">
-        <v>-3319</v>
-      </c>
-      <c r="N29" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+        <v>-903</v>
+      </c>
+      <c r="N29" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
@@ -1341,138 +1342,90 @@
       <c r="I30" s="11">
         <v>918780</v>
       </c>
-      <c r="J30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="9">
-        <v>0</v>
-      </c>
-      <c r="K31" s="9">
-        <v>-9994</v>
-      </c>
-      <c r="L31" s="9">
-        <v>-1627</v>
-      </c>
-      <c r="M31" s="9">
-        <v>-903</v>
-      </c>
-      <c r="N31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="11">
+      <c r="J30" s="11">
         <v>883734</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K30" s="11">
         <v>1726501</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L30" s="11">
         <v>2656402</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M30" s="11">
         <v>4376488</v>
       </c>
-      <c r="N32" s="11">
+      <c r="N30" s="11">
         <v>7157270</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15">
         <v>591384</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F31" s="15">
         <v>797864</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G31" s="15">
         <v>844367</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H31" s="15">
         <v>971148</v>
       </c>
-      <c r="I33" s="15">
+      <c r="I31" s="15">
         <v>918780</v>
       </c>
-      <c r="J33" s="15">
+      <c r="J31" s="15">
         <v>883734</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K31" s="15">
         <v>1713032</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L31" s="15">
         <v>2644163</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M31" s="15">
         <v>4372266</v>
       </c>
-      <c r="N33" s="15">
+      <c r="N31" s="15">
         <v>7157270</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1487,22 +1440,44 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1517,61 +1492,87 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N37" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0</v>
+      </c>
+      <c r="K37" s="9">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11">
+        <v>6904658</v>
+      </c>
+      <c r="F38" s="11">
+        <v>10837451</v>
+      </c>
+      <c r="G38" s="11">
+        <v>12503954</v>
+      </c>
+      <c r="H38" s="11">
+        <v>13934456</v>
+      </c>
+      <c r="I38" s="11">
+        <v>14475815</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>27</v>
@@ -1604,128 +1605,80 @@
       <c r="M39" s="9">
         <v>0</v>
       </c>
-      <c r="N39" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11">
-        <v>6904658</v>
-      </c>
-      <c r="F40" s="11">
-        <v>10837451</v>
-      </c>
-      <c r="G40" s="11">
-        <v>12503954</v>
-      </c>
-      <c r="H40" s="11">
-        <v>13934456</v>
-      </c>
-      <c r="I40" s="11">
-        <v>14475815</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B41" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="9">
-        <v>0</v>
-      </c>
-      <c r="K41" s="9">
-        <v>0</v>
-      </c>
-      <c r="L41" s="9">
-        <v>0</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="11">
+      <c r="E40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="11">
         <v>13964352</v>
       </c>
-      <c r="K42" s="11">
+      <c r="K40" s="11">
         <v>23207842</v>
       </c>
-      <c r="L42" s="11">
+      <c r="L40" s="11">
         <v>35818427</v>
       </c>
-      <c r="M42" s="11">
+      <c r="M40" s="11">
         <v>58177864</v>
       </c>
-      <c r="N42" s="11">
+      <c r="N40" s="11">
         <v>98973519</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1740,22 +1693,44 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1770,61 +1745,87 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B46" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N46" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="9">
+        <v>0</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9">
+        <v>4104</v>
+      </c>
+      <c r="M46" s="9">
+        <v>1613</v>
+      </c>
+      <c r="N46" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="11">
+        <v>0</v>
+      </c>
+      <c r="K47" s="11">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11">
+        <v>0</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>25</v>
@@ -1846,137 +1847,89 @@
         <v>17</v>
       </c>
       <c r="J48" s="9">
-        <v>0</v>
+        <v>-583884</v>
       </c>
       <c r="K48" s="9">
-        <v>0</v>
+        <v>-881740</v>
       </c>
       <c r="L48" s="9">
-        <v>4104</v>
+        <v>-1201867</v>
       </c>
       <c r="M48" s="9">
-        <v>1613</v>
-      </c>
-      <c r="N48" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="11">
-        <v>0</v>
-      </c>
-      <c r="K49" s="11">
-        <v>0</v>
-      </c>
-      <c r="L49" s="11">
-        <v>0</v>
-      </c>
-      <c r="M49" s="11">
-        <v>0</v>
-      </c>
-      <c r="N49" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="9">
+        <v>-1828242</v>
+      </c>
+      <c r="N48" s="9">
+        <v>-2792642</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13">
+        <v>0</v>
+      </c>
+      <c r="F49" s="13">
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <v>0</v>
+      </c>
+      <c r="J49" s="13">
         <v>-583884</v>
       </c>
-      <c r="K50" s="9">
+      <c r="K49" s="13">
         <v>-881740</v>
       </c>
-      <c r="L50" s="9">
-        <v>-1201867</v>
-      </c>
-      <c r="M50" s="9">
-        <v>-1828242</v>
-      </c>
-      <c r="N50" s="9">
+      <c r="L49" s="13">
+        <v>-1197763</v>
+      </c>
+      <c r="M49" s="13">
+        <v>-1826629</v>
+      </c>
+      <c r="N49" s="13">
         <v>-2792642</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B51" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13">
-        <v>0</v>
-      </c>
-      <c r="F51" s="13">
-        <v>0</v>
-      </c>
-      <c r="G51" s="13">
-        <v>0</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
-      </c>
-      <c r="I51" s="13">
-        <v>0</v>
-      </c>
-      <c r="J51" s="13">
-        <v>-583884</v>
-      </c>
-      <c r="K51" s="13">
-        <v>-881740</v>
-      </c>
-      <c r="L51" s="13">
-        <v>-1197763</v>
-      </c>
-      <c r="M51" s="13">
-        <v>-1826629</v>
-      </c>
-      <c r="N51" s="13">
-        <v>-2792642</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1991,22 +1944,44 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2021,61 +1996,87 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K55" s="9">
+        <v>-3475</v>
+      </c>
+      <c r="L55" s="9">
+        <v>-6508</v>
+      </c>
+      <c r="M55" s="9">
+        <v>-1706</v>
+      </c>
+      <c r="N55" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K56" s="11">
+        <v>-9994</v>
+      </c>
+      <c r="L56" s="11">
+        <v>-1627</v>
+      </c>
+      <c r="M56" s="11">
+        <v>-903</v>
+      </c>
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C57" s="9" t="s">
         <v>25</v>
@@ -2096,134 +2097,56 @@
       <c r="I57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J57" s="9" t="s">
-        <v>17</v>
+      <c r="J57" s="9">
+        <v>299850</v>
       </c>
       <c r="K57" s="9">
-        <v>-3475</v>
+        <v>844761</v>
       </c>
       <c r="L57" s="9">
-        <v>-6508</v>
+        <v>1454535</v>
       </c>
       <c r="M57" s="9">
-        <v>-1706</v>
-      </c>
-      <c r="N57" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J58" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K58" s="11">
-        <v>-9994</v>
-      </c>
-      <c r="L58" s="11">
-        <v>-1627</v>
-      </c>
-      <c r="M58" s="11">
-        <v>-903</v>
-      </c>
-      <c r="N58" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B59" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J59" s="9">
+        <v>2548246</v>
+      </c>
+      <c r="N57" s="9">
+        <v>4364628</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13">
+        <v>0</v>
+      </c>
+      <c r="G58" s="13">
+        <v>0</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" s="13">
+        <v>0</v>
+      </c>
+      <c r="J58" s="13">
         <v>299850</v>
       </c>
-      <c r="K59" s="9">
-        <v>844761</v>
-      </c>
-      <c r="L59" s="9">
-        <v>1454535</v>
-      </c>
-      <c r="M59" s="9">
-        <v>2548246</v>
-      </c>
-      <c r="N59" s="9">
-        <v>4364628</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B60" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13">
-        <v>0</v>
-      </c>
-      <c r="F60" s="13">
-        <v>0</v>
-      </c>
-      <c r="G60" s="13">
-        <v>0</v>
-      </c>
-      <c r="H60" s="13">
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
-        <v>0</v>
-      </c>
-      <c r="J60" s="13">
-        <v>299850</v>
-      </c>
-      <c r="K60" s="13">
+      <c r="K58" s="13">
         <v>831292</v>
       </c>
-      <c r="L60" s="13">
+      <c r="L58" s="13">
         <v>1446400</v>
       </c>
-      <c r="M60" s="13">
+      <c r="M58" s="13">
         <v>2545637</v>
       </c>
-      <c r="N60" s="13">
+      <c r="N58" s="13">
         <v>4364628</v>
       </c>
     </row>
